--- a/SP_Sklad/TempLate/AnalizPlan_fac_kopchenosty.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fac_kopchenosty.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
@@ -15,14 +15,14 @@
     <definedName name="MatList">Лист1!$A$9:$P$12</definedName>
     <definedName name="WBList">Лист1!$A$10:$P$11</definedName>
     <definedName name="WhList">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$S$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Закінчене виробництво</t>
   </si>
@@ -82,13 +82,22 @@
   </si>
   <si>
     <t>Аналіз план/факт (копченості)</t>
+  </si>
+  <si>
+    <t>термовтрати план</t>
+  </si>
+  <si>
+    <t>Вихід план</t>
+  </si>
+  <si>
+    <t>Відхилення план</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +438,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -439,30 +472,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,6 +483,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,7 +566,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -589,7 +600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -765,16 +775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:P11"/>
+  <dimension ref="B1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -792,26 +802,26 @@
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="2:19" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
-    <row r="2" spans="2:16" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" s="3" customFormat="1" ht="10.5" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -824,7 +834,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -843,7 +853,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -862,7 +872,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -871,50 +881,59 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:19" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="24" t="s">
         <v>2</v>
       </c>
+      <c r="Q6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="2:16" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
@@ -933,17 +952,20 @@
       <c r="K7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
+    <row r="8" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="15">
         <v>2</v>
       </c>
@@ -979,13 +1001,22 @@
       <c r="P8" s="15">
         <v>12</v>
       </c>
+      <c r="Q8" s="15">
+        <v>13</v>
+      </c>
+      <c r="R8" s="15">
+        <v>14</v>
+      </c>
+      <c r="S8" s="15">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="2:16" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="e">
+    <row r="9" spans="2:19" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1">
+      <c r="B9" s="29" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1000,9 +1031,9 @@
       <c r="O9" s="13"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
+    <row r="10" spans="2:19" ht="16.5" customHeight="1" outlineLevel="1">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="11" t="e">
         <f>WBList_OnDate</f>
         <v>#NAME?</v>
@@ -1055,13 +1086,25 @@
         <f>WBList_Price</f>
         <v>#NAME?</v>
       </c>
+      <c r="Q10" t="e">
+        <f>WBList_ThermoLossOut/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" t="e">
+        <f>WBList_OutPlan/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" t="e">
+        <f>WBList_Deviation/100</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="e">
+    <row r="11" spans="2:19" ht="18" customHeight="1">
+      <c r="B11" s="26" t="e">
         <f>B9</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1146,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -1112,8 +1160,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="H6:I6"/>
@@ -1122,21 +1168,18 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1144,13 +1187,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/SP_Sklad/TempLate/AnalizPlan_fac_kopchenosty.xlsx
+++ b/SP_Sklad/TempLate/AnalizPlan_fac_kopchenosty.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="MatList">Лист1!$A$9:$P$12</definedName>
@@ -17,7 +15,7 @@
     <definedName name="WhList">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$S$19</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -438,6 +436,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,12 +463,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -461,18 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,23 +801,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="2:19" s="3" customFormat="1" ht="10.5" customHeight="1">
       <c r="B2" s="4"/>
@@ -882,58 +880,58 @@
       </c>
     </row>
     <row r="6" spans="2:19" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:19" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
@@ -952,20 +950,20 @@
       <c r="K7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B8" s="27">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="15">
         <v>2</v>
       </c>
@@ -1012,11 +1010,11 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="2" customFormat="1" ht="9.75" hidden="1" customHeight="1">
-      <c r="B9" s="29" t="e">
+      <c r="B9" s="23" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1032,8 +1030,8 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="11" t="e">
         <f>WBList_OnDate</f>
         <v>#NAME?</v>
@@ -1100,11 +1098,11 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" customHeight="1">
-      <c r="B11" s="26" t="e">
+      <c r="B11" s="30" t="e">
         <f>B9</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
@@ -1147,15 +1145,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="J6:K6"/>
@@ -1166,36 +1155,17 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>